--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/48/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/48/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.2958295829582959</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1273.273273273273</v>
+        <v>1959.71597159716</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03313313313313313</v>
+        <v>0.07515751575157516</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5785785785785785</v>
+        <v>0.788978897889789</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1483.483483483484</v>
+        <v>707.1107110711072</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>965.965965965966</v>
+        <v>124.5724572457246</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.1541541541542</v>
+        <v>615.1467146714671</v>
       </c>
     </row>
   </sheetData>
